--- a/Estadisticas/Grafos Regulares.xlsx
+++ b/Estadisticas/Grafos Regulares.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="14115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1000y50" sheetId="1" r:id="rId1"/>
-    <sheet name="1000y75" sheetId="3" r:id="rId2"/>
+    <sheet name="1000y75" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -18,9 +21,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Estadisticas Grafos Regulares 1000 Nodos y 50% Ady</t>
-  </si>
-  <si>
-    <t>Matula</t>
   </si>
   <si>
     <t>Cantidad de colores</t>
@@ -31,12 +31,15 @@
   <si>
     <t>Welsh-Powell</t>
   </si>
+  <si>
+    <t>Matula</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,22 +74,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -100,16 +101,27 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
-  <c:style val="42"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'1000y50'!$B$3</c:f>
@@ -274,15 +286,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F0FE-4BD1-8765-D609FCE62F35}"/>
+              <c16:uniqueId val="{00000001-F0FE-4BD1-8765-D609FCE62F35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'1000y50'!$C$3</c:f>
@@ -447,15 +460,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F0FE-4BD1-8765-D609FCE62F35}"/>
+              <c16:uniqueId val="{00000002-F0FE-4BD1-8765-D609FCE62F35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'1000y50'!$D$3</c:f>
@@ -620,51 +634,262 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F0FE-4BD1-8765-D609FCE62F35}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="120541184"/>
-        <c:axId val="120542720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1166204288"/>
+        <c:axId val="1166196128"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1000y50'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cantidad de colores</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1000y50'!$A$4:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>252</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>327</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>328</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>329</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>331</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>332</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>333</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>334</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>335</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>336</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>337</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>338</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>339</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>342</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>344</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>345</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>347</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1000y50'!$A$4:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>252</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>327</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>328</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>329</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>331</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>332</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>333</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>334</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>335</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>336</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>337</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>338</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>339</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>342</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>344</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>345</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>347</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F0FE-4BD1-8765-D609FCE62F35}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120541184"/>
+        <c:axId val="1166204288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120542720"/>
+        <c:crossAx val="1166196128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120542720"/>
+        <c:axId val="1166196128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1950"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120541184"/>
+        <c:crossAx val="1166204288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -676,16 +901,27 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
-  <c:style val="42"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'1000y75'!$B$3</c:f>
@@ -814,15 +1050,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F86-4129-A3C5-B981A0DC5130}"/>
+              <c16:uniqueId val="{00000001-4F86-4129-A3C5-B981A0DC5130}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'1000y75'!$C$3</c:f>
@@ -951,15 +1188,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F86-4129-A3C5-B981A0DC5130}"/>
+              <c16:uniqueId val="{00000002-4F86-4129-A3C5-B981A0DC5130}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'1000y75'!$D$3</c:f>
@@ -1088,42 +1326,214 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F86-4129-A3C5-B981A0DC5130}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="121301632"/>
-        <c:axId val="121315712"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1280818288"/>
+        <c:axId val="1280818832"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1000y75'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cantidad de colores</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1000y75'!$A$4:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>501</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>502</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>503</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>504</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>505</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>506</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>507</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>509</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>510</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>511</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>513</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>514</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>624</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1000y75'!$A$4:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>501</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>502</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>503</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>504</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>505</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>506</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>507</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>509</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>510</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>511</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>513</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>514</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>624</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4F86-4129-A3C5-B981A0DC5130}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121301632"/>
+        <c:axId val="1280818288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121315712"/>
+        <c:crossAx val="1280818832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121315712"/>
+        <c:axId val="1280818832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2850"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121301632"/>
+        <c:crossAx val="1280818288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,9 +1541,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1148,26 +1560,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico">
+        <xdr:cNvPr id="2" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1189,26 +1603,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico">
+        <xdr:cNvPr id="3" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1223,6 +1639,577 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1000y50"/>
+      <sheetName val="1000y75"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Secuencial aleatorio</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Welsh-Powell</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Matula</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>252</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>276</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>327</v>
+          </cell>
+          <cell r="B6">
+            <v>3</v>
+          </cell>
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="D6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>328</v>
+          </cell>
+          <cell r="B7">
+            <v>105</v>
+          </cell>
+          <cell r="C7">
+            <v>139</v>
+          </cell>
+          <cell r="D7">
+            <v>128</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>329</v>
+          </cell>
+          <cell r="B8">
+            <v>750</v>
+          </cell>
+          <cell r="C8">
+            <v>643</v>
+          </cell>
+          <cell r="D8">
+            <v>695</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>330</v>
+          </cell>
+          <cell r="B9">
+            <v>1476</v>
+          </cell>
+          <cell r="C9">
+            <v>1475</v>
+          </cell>
+          <cell r="D9">
+            <v>1429</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>331</v>
+          </cell>
+          <cell r="B10">
+            <v>1878</v>
+          </cell>
+          <cell r="C10">
+            <v>1922</v>
+          </cell>
+          <cell r="D10">
+            <v>1928</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>332</v>
+          </cell>
+          <cell r="B11">
+            <v>1803</v>
+          </cell>
+          <cell r="C11">
+            <v>1820</v>
+          </cell>
+          <cell r="D11">
+            <v>1788</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>333</v>
+          </cell>
+          <cell r="B12">
+            <v>1441</v>
+          </cell>
+          <cell r="C12">
+            <v>1398</v>
+          </cell>
+          <cell r="D12">
+            <v>1465</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>334</v>
+          </cell>
+          <cell r="B13">
+            <v>1011</v>
+          </cell>
+          <cell r="C13">
+            <v>1059</v>
+          </cell>
+          <cell r="D13">
+            <v>1085</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>335</v>
+          </cell>
+          <cell r="B14">
+            <v>648</v>
+          </cell>
+          <cell r="C14">
+            <v>667</v>
+          </cell>
+          <cell r="D14">
+            <v>668</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>336</v>
+          </cell>
+          <cell r="B15">
+            <v>422</v>
+          </cell>
+          <cell r="C15">
+            <v>412</v>
+          </cell>
+          <cell r="D15">
+            <v>372</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>337</v>
+          </cell>
+          <cell r="B16">
+            <v>219</v>
+          </cell>
+          <cell r="C16">
+            <v>212</v>
+          </cell>
+          <cell r="D16">
+            <v>203</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>338</v>
+          </cell>
+          <cell r="B17">
+            <v>129</v>
+          </cell>
+          <cell r="C17">
+            <v>129</v>
+          </cell>
+          <cell r="D17">
+            <v>127</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>339</v>
+          </cell>
+          <cell r="B18">
+            <v>66</v>
+          </cell>
+          <cell r="C18">
+            <v>54</v>
+          </cell>
+          <cell r="D18">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>340</v>
+          </cell>
+          <cell r="B19">
+            <v>32</v>
+          </cell>
+          <cell r="C19">
+            <v>38</v>
+          </cell>
+          <cell r="D19">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>341</v>
+          </cell>
+          <cell r="B20">
+            <v>9</v>
+          </cell>
+          <cell r="C20">
+            <v>15</v>
+          </cell>
+          <cell r="D20">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>342</v>
+          </cell>
+          <cell r="B21">
+            <v>6</v>
+          </cell>
+          <cell r="C21">
+            <v>5</v>
+          </cell>
+          <cell r="D21">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>343</v>
+          </cell>
+          <cell r="B22">
+            <v>1</v>
+          </cell>
+          <cell r="C22">
+            <v>5</v>
+          </cell>
+          <cell r="D22">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>344</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>345</v>
+          </cell>
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>347</v>
+          </cell>
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+          <cell r="C25">
+            <v>1</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Secuencial aleatorio</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Welsh-Powell</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Matula</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>500</v>
+          </cell>
+          <cell r="B4">
+            <v>272</v>
+          </cell>
+          <cell r="C4">
+            <v>266</v>
+          </cell>
+          <cell r="D4">
+            <v>279</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>501</v>
+          </cell>
+          <cell r="B5">
+            <v>2027</v>
+          </cell>
+          <cell r="C5">
+            <v>2080</v>
+          </cell>
+          <cell r="D5">
+            <v>2030</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>502</v>
+          </cell>
+          <cell r="B6">
+            <v>2671</v>
+          </cell>
+          <cell r="C6">
+            <v>2801</v>
+          </cell>
+          <cell r="D6">
+            <v>2652</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>503</v>
+          </cell>
+          <cell r="B7">
+            <v>2061</v>
+          </cell>
+          <cell r="C7">
+            <v>2073</v>
+          </cell>
+          <cell r="D7">
+            <v>2122</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>504</v>
+          </cell>
+          <cell r="B8">
+            <v>1423</v>
+          </cell>
+          <cell r="C8">
+            <v>1311</v>
+          </cell>
+          <cell r="D8">
+            <v>1381</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>505</v>
+          </cell>
+          <cell r="B9">
+            <v>819</v>
+          </cell>
+          <cell r="C9">
+            <v>765</v>
+          </cell>
+          <cell r="D9">
+            <v>797</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>506</v>
+          </cell>
+          <cell r="B10">
+            <v>399</v>
+          </cell>
+          <cell r="C10">
+            <v>377</v>
+          </cell>
+          <cell r="D10">
+            <v>387</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>507</v>
+          </cell>
+          <cell r="B11">
+            <v>193</v>
+          </cell>
+          <cell r="C11">
+            <v>181</v>
+          </cell>
+          <cell r="D11">
+            <v>206</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>508</v>
+          </cell>
+          <cell r="B12">
+            <v>87</v>
+          </cell>
+          <cell r="C12">
+            <v>100</v>
+          </cell>
+          <cell r="D12">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>509</v>
+          </cell>
+          <cell r="B13">
+            <v>25</v>
+          </cell>
+          <cell r="C13">
+            <v>19</v>
+          </cell>
+          <cell r="D13">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>510</v>
+          </cell>
+          <cell r="B14">
+            <v>16</v>
+          </cell>
+          <cell r="C14">
+            <v>18</v>
+          </cell>
+          <cell r="D14">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>511</v>
+          </cell>
+          <cell r="B15">
+            <v>3</v>
+          </cell>
+          <cell r="C15">
+            <v>5</v>
+          </cell>
+          <cell r="D15">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>512</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+          <cell r="C16">
+            <v>2</v>
+          </cell>
+          <cell r="D16">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>513</v>
+          </cell>
+          <cell r="B17">
+            <v>1</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>514</v>
+          </cell>
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>624</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+          <cell r="C19">
+            <v>1</v>
+          </cell>
+          <cell r="D19">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,7 +2255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,9 +2287,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,6 +2322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1509,51 +2498,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>252</v>
       </c>
@@ -1567,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>276</v>
       </c>
@@ -1581,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>327</v>
       </c>
@@ -1595,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>328</v>
       </c>
@@ -1609,7 +2597,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>329</v>
       </c>
@@ -1623,7 +2611,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>330</v>
       </c>
@@ -1637,7 +2625,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>331</v>
       </c>
@@ -1651,7 +2639,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>332</v>
       </c>
@@ -1665,7 +2653,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>333</v>
       </c>
@@ -1679,7 +2667,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>334</v>
       </c>
@@ -1693,7 +2681,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>335</v>
       </c>
@@ -1707,7 +2695,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>336</v>
       </c>
@@ -1721,7 +2709,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>337</v>
       </c>
@@ -1735,7 +2723,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>338</v>
       </c>
@@ -1749,7 +2737,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>339</v>
       </c>
@@ -1763,7 +2751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>340</v>
       </c>
@@ -1777,7 +2765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>341</v>
       </c>
@@ -1791,7 +2779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>342</v>
       </c>
@@ -1805,7 +2793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>343</v>
       </c>
@@ -1819,7 +2807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>344</v>
       </c>
@@ -1833,7 +2821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>345</v>
       </c>
@@ -1847,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>347</v>
       </c>
@@ -1871,53 +2859,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>500</v>
       </c>
@@ -1931,7 +2916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>501</v>
       </c>
@@ -1945,7 +2930,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>502</v>
       </c>
@@ -1959,7 +2944,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>503</v>
       </c>
@@ -1973,7 +2958,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>504</v>
       </c>
@@ -1987,7 +2972,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>505</v>
       </c>
@@ -2001,7 +2986,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>506</v>
       </c>
@@ -2015,7 +3000,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>507</v>
       </c>
@@ -2029,7 +3014,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>508</v>
       </c>
@@ -2043,7 +3028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>509</v>
       </c>
@@ -2057,7 +3042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>510</v>
       </c>
@@ -2071,7 +3056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>511</v>
       </c>
@@ -2085,7 +3070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>512</v>
       </c>
@@ -2099,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>513</v>
       </c>
@@ -2113,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>514</v>
       </c>
@@ -2127,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>624</v>
       </c>
@@ -2141,16 +3126,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B4:B19)</f>
         <v>10000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <f t="shared" ref="C20:D20" si="0">SUM(C4:C19)</f>
         <v>10000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
